--- a/dataset - stanford NLP.xlsx
+++ b/dataset - stanford NLP.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PhD New\Final PR Letters\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFA29E8-0B41-4A5A-A782-82A53154E5FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148C9E97-6286-4174-8168-4B4C08A57583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="497" windowWidth="22149" windowHeight="11949" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="497" windowWidth="22149" windowHeight="11949" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="with pp attachment dataset" sheetId="1" r:id="rId1"/>
     <sheet name="ppambiguity" sheetId="3" r:id="rId2"/>
-    <sheet name="ppambiguity (2)" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="ppambiguityToShow" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet13" sheetId="17" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'with pp attachment dataset'!$A$1:$O$87</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="374">
   <si>
     <t>sentence #</t>
   </si>
@@ -1065,15 +1066,6 @@
     <t>PPAmbiguity</t>
   </si>
   <si>
-    <t>Parsed?:</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>kBest:</t>
-  </si>
-  <si>
     <t>Parse Tree 1 VP</t>
   </si>
   <si>
@@ -1108,13 +1100,73 @@
   </si>
   <si>
     <t>PP attached to NP after syntatico-semantic reasoning</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Diff1</t>
+  </si>
+  <si>
+    <t>Diff2</t>
+  </si>
+  <si>
+    <t>t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>Log Diff1</t>
+  </si>
+  <si>
+    <t>Log Diff2</t>
+  </si>
+  <si>
+    <t>Log Diff 1</t>
+  </si>
+  <si>
+    <t>Log Diff 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1278,6 +1330,14 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1467,7 +1527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1651,6 +1711,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1696,7 +1776,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1790,11 +1870,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1802,12 +1888,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5610,7 +5697,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="M1" sqref="M1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5658,22 +5745,22 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="26.15" x14ac:dyDescent="0.4">
@@ -5728,7 +5815,7 @@
         <v>-57.607821494087503</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="S2" s="12">
         <v>-8.6079874896897906</v>
@@ -5789,7 +5876,7 @@
         <v>-57.161908179268195</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="S3" s="12">
         <v>-8.0317109999999996</v>
@@ -7091,8 +7178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC4BFDF-909C-4BE9-97DB-13865EF47692}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7113,93 +7200,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.4">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="N2" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.4">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>356</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="12" customFormat="1" ht="26.15" x14ac:dyDescent="0.4">
@@ -7224,14 +7311,14 @@
       <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
+      <c r="H3" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>327</v>
@@ -7251,7 +7338,7 @@
         <v>-57.607821494087503</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="R3" s="12">
         <v>-8.6079874896897906</v>
@@ -7282,14 +7369,14 @@
       <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
+      <c r="H4" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>327</v>
@@ -7309,7 +7396,7 @@
         <v>-57.161908179268195</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="R4" s="12">
         <v>-8.0317109999999996</v>
@@ -7340,14 +7427,14 @@
       <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
+      <c r="H5" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>329</v>
@@ -7390,14 +7477,14 @@
       <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
+      <c r="H6" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>326</v>
@@ -7446,14 +7533,14 @@
       <c r="G7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
+      <c r="H7" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>327</v>
@@ -7502,14 +7589,14 @@
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1</v>
+      <c r="H8" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>329</v>
@@ -7552,14 +7639,14 @@
       <c r="G9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
+      <c r="H9" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>329</v>
@@ -7580,7 +7667,7 @@
       </c>
       <c r="Q9" s="14"/>
     </row>
-    <row r="10" spans="1:19" s="12" customFormat="1" ht="35.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" s="12" customFormat="1" ht="24" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -7602,14 +7689,14 @@
       <c r="G10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
+      <c r="H10" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>326</v>
@@ -7652,14 +7739,14 @@
       <c r="G11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
+      <c r="H11" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>330</v>
@@ -7702,14 +7789,14 @@
       <c r="G12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1</v>
+      <c r="H12" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K12" s="27" t="s">
         <v>329</v>
@@ -7752,14 +7839,14 @@
       <c r="G13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1</v>
+      <c r="H13" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>329</v>
@@ -7802,14 +7889,14 @@
       <c r="G14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1</v>
+      <c r="H14" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>329</v>
@@ -7852,14 +7939,14 @@
       <c r="G15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
+      <c r="H15" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K15" s="27" t="s">
         <v>329</v>
@@ -7902,14 +7989,14 @@
       <c r="G16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1</v>
+      <c r="H16" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K16" s="27" t="s">
         <v>329</v>
@@ -7952,14 +8039,14 @@
       <c r="G17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1</v>
+      <c r="H17" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K17" s="27" t="s">
         <v>327</v>
@@ -7980,7 +8067,7 @@
       </c>
       <c r="Q17" s="14"/>
     </row>
-    <row r="18" spans="1:17" s="12" customFormat="1" ht="26.15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" s="12" customFormat="1" ht="25.75" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -8002,14 +8089,14 @@
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1</v>
+      <c r="H18" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>330</v>
@@ -8052,14 +8139,14 @@
       <c r="G19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1</v>
+      <c r="H19" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K19" s="27" t="s">
         <v>329</v>
@@ -8102,14 +8189,14 @@
       <c r="G20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1</v>
+      <c r="H20" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K20" s="27" t="s">
         <v>326</v>
@@ -8152,14 +8239,14 @@
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1</v>
+      <c r="H21" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K21" s="27" t="s">
         <v>329</v>
@@ -8202,14 +8289,14 @@
       <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1</v>
+      <c r="H22" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>330</v>
@@ -8252,14 +8339,14 @@
       <c r="G23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
+      <c r="H23" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="K23" s="27" t="s">
         <v>331</v>
@@ -8302,14 +8389,14 @@
       <c r="G24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="K24" s="27" t="s">
         <v>331</v>
@@ -8352,14 +8439,14 @@
       <c r="G25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
+      <c r="H25" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="K25" s="27" t="s">
         <v>331</v>
@@ -8402,14 +8489,14 @@
       <c r="G26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
+      <c r="H26" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="K26" s="27" t="s">
         <v>331</v>
@@ -8437,7 +8524,7 @@
       <c r="B27" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="35" t="s">
         <v>288</v>
       </c>
       <c r="D27" s="30" t="s">
@@ -8452,14 +8539,14 @@
       <c r="G27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1</v>
+      <c r="H27" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K27" s="27" t="s">
         <v>329</v>
@@ -8502,14 +8589,14 @@
       <c r="G28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1</v>
+      <c r="H28" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="K28" s="27" t="s">
         <v>329</v>
@@ -8551,689 +8638,1073 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EC9E97-30A0-4197-9BA7-19C2AF0C6D10}">
-  <dimension ref="A1:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926BA856-1067-4B2D-9C1F-FF763A81B4D5}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="31.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.61328125" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1">
-        <v>1</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="41">
+        <v>-62.155406270597673</v>
+      </c>
+      <c r="C4" s="41">
+        <v>-62.904288323508268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="B5" s="41">
+        <v>161.65885356840036</v>
+      </c>
+      <c r="C5" s="41">
+        <v>163.78879609985975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="B6" s="41">
+        <v>26</v>
+      </c>
+      <c r="C6" s="41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="B7" s="41">
+        <v>0.99968979662135149</v>
+      </c>
+      <c r="C7" s="41"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="41">
+        <v>0</v>
+      </c>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B9" s="41">
+        <v>25</v>
+      </c>
+      <c r="C9" s="41"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10" s="41">
+        <v>11.623679068770794</v>
+      </c>
+      <c r="C10" s="41"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="45">
+        <v>7.08851452877528E-12</v>
+      </c>
+      <c r="C11" s="41"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" s="41">
+        <v>1.7081407612518986</v>
+      </c>
+      <c r="C12" s="41"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" s="44">
+        <v>1.41770290575506E-11</v>
+      </c>
+      <c r="C13" s="41"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="B14" s="42">
+        <v>2.0595385527532977</v>
+      </c>
+      <c r="C14" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EC9E97-30A0-4197-9BA7-19C2AF0C6D10}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.3046875" customWidth="1"/>
+    <col min="6" max="6" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.3046875" customWidth="1"/>
+    <col min="9" max="9" width="12.4609375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>342</v>
       </c>
       <c r="B1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" t="s">
         <v>342</v>
-      </c>
-      <c r="C1" t="b">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>343</v>
       </c>
       <c r="E1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
+        <v>356</v>
+      </c>
+      <c r="F1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2">
         <v>-56.413710772991102</v>
       </c>
-      <c r="H1">
+      <c r="B2">
         <v>-57.608310367911997</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E2" t="s">
-        <v>344</v>
+      <c r="C2">
+        <v>-56.989987262680891</v>
+      </c>
+      <c r="D2">
+        <v>-57.607821494087503</v>
+      </c>
+      <c r="E2">
+        <f>POWER(10,A2)*(1-POWER(10,-(A2-B2)))</f>
+        <v>3.6109238395770951E-57</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <f>POWER(10,C2)*(1-POWER(10,-(C2-D2)))</f>
+        <v>7.7661768968448602E-58</v>
       </c>
       <c r="G2">
+        <f>IF(ABS(F2)&gt;ABS(E2),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>A2 +LOG10((1- POWER(10,-(A2-B2))))</f>
+        <v>-56.442381671473527</v>
+      </c>
+      <c r="I2">
+        <f>C2 +LOG10((1- POWER(10,-(C2-D2))))</f>
+        <v>-57.10979272138092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>-55.967799365520399</v>
       </c>
-      <c r="H2">
+      <c r="B3">
         <v>-57.162397053092697</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E3" t="s">
-        <v>344</v>
+      <c r="C3">
+        <v>-56.544075855210188</v>
+      </c>
+      <c r="D3">
+        <v>-57.161908179268195</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E27" si="0">POWER(10,A3)*(1-POWER(10,-(A3-B3)))</f>
+        <v>1.0081603332534365E-56</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <f t="shared" ref="F3:F27" si="1">POWER(10,C3)*(1-POWER(10,-(C3-D3)))</f>
+        <v>2.1682935613241514E-57</v>
       </c>
       <c r="G3">
+        <f t="shared" ref="G3:G27" si="2">IF(ABS(F3)&gt;ABS(E3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H27" si="3">A3 +LOG10((1- POWER(10,-(A3-B3))))</f>
+        <v>-55.996470394170274</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I27" si="4">C3 +LOG10((1- POWER(10,-(C3-D3))))</f>
+        <v>-56.663881919812461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>-45.816474139690399</v>
       </c>
-      <c r="H3">
+      <c r="B4">
         <v>-46.8975702784955</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E4" t="s">
-        <v>344</v>
+      <c r="C4">
+        <v>-46.392750629380188</v>
+      </c>
+      <c r="D4">
+        <v>-46.897081404670999</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.399300414044223E-46</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>2.7806683690120074E-47</v>
       </c>
       <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>-45.854089037362584</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>-46.555850803331531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>-64.804640948772402</v>
       </c>
-      <c r="H4">
+      <c r="B5">
         <v>-65.885737087577496</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E5" t="s">
-        <v>344</v>
+      <c r="C5">
+        <v>-65.380917438462191</v>
+      </c>
+      <c r="D5">
+        <v>-65.885248213753002</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.4379512198190981E-65</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>2.8574746587668019E-66</v>
       </c>
       <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>-64.842255846444587</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>-65.544017612413541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>-54.154376208782097</v>
       </c>
-      <c r="H5">
+      <c r="B6">
         <v>-55.2354704402387</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>343</v>
-      </c>
-      <c r="E6" t="s">
-        <v>344</v>
+      <c r="C6">
+        <v>-54.730652698471886</v>
+      </c>
+      <c r="D6">
+        <v>-55.234981566414206</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6.4270062313190938E-55</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1.2771627937804127E-55</v>
       </c>
       <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>-54.191991279018147</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>-54.893753741785595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>-71.711013019084902</v>
       </c>
-      <c r="H6">
+      <c r="B7">
         <v>-72.905614521354394</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E7" t="s">
-        <v>344</v>
+      <c r="C7">
+        <v>-72.287289508774691</v>
+      </c>
+      <c r="D7">
+        <v>-72.9051256475299</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.82102627694793E-72</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3.9165677041888012E-73</v>
       </c>
       <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>-71.739683787400494</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>-72.407094361575986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>-64.597342669963794</v>
       </c>
-      <c r="H7">
+      <c r="B8">
         <v>-65.678430225700097</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E8" t="s">
-        <v>344</v>
+      <c r="C8">
+        <v>-65.173619159653583</v>
+      </c>
+      <c r="D8">
+        <v>-65.677941351875603</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2.3176169360169582E-65</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>4.6054996562047715E-66</v>
       </c>
       <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>-64.634958344179921</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>-65.336723245779623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>-84.393347918987203</v>
       </c>
-      <c r="H8">
+      <c r="B9">
         <v>-85.587947513908105</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>343</v>
-      </c>
-      <c r="E9" t="s">
-        <v>344</v>
+      <c r="C9">
+        <v>-84.969624408676992</v>
+      </c>
+      <c r="D9">
+        <v>-85.587458640083611</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3.7842618759977338E-85</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>8.1389828361560006E-86</v>
       </c>
       <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>-84.422018817469635</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>-85.089429867377021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>-51.2123901247978</v>
       </c>
-      <c r="H9">
+      <c r="B10">
         <v>-52.293488170951598</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>343</v>
-      </c>
-      <c r="E10" t="s">
-        <v>344</v>
+      <c r="C10">
+        <v>-51.788666614487589</v>
+      </c>
+      <c r="D10">
+        <v>-52.292999297127096</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.6233504537795991E-52</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1.117465389538733E-52</v>
       </c>
       <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>-51.250004849906936</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>-51.951765919082028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11">
         <v>-69.0383598208427</v>
       </c>
-      <c r="H10">
+      <c r="B11">
         <v>-70.232961323112207</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>342</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>343</v>
-      </c>
-      <c r="E11" t="s">
-        <v>344</v>
+      <c r="C11">
+        <v>-69.614636310532489</v>
+      </c>
+      <c r="D11">
+        <v>-70.232472449287712</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8.5697748263270809E-70</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1.8431421743796632E-70</v>
       </c>
       <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>-69.067030589158293</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>-69.734441163333784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>-52.350680530071202</v>
       </c>
-      <c r="H11">
+      <c r="B12">
         <v>-53.545282032340701</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>343</v>
-      </c>
-      <c r="E12" t="s">
-        <v>344</v>
+      <c r="C12">
+        <v>-52.926957019760991</v>
+      </c>
+      <c r="D12">
+        <v>-53.5447931585162</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4.1749252264941926E-53</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>8.9792099743314307E-54</v>
       </c>
       <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>-52.379351298386787</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>-53.046761872562286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13">
         <v>-51.052973926067303</v>
       </c>
-      <c r="H12">
+      <c r="B13">
         <v>-52.247570659965199</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>342</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>343</v>
-      </c>
-      <c r="E13" t="s">
-        <v>344</v>
+      <c r="C13">
+        <v>-51.629250415757092</v>
+      </c>
+      <c r="D13">
+        <v>-52.247081786140697</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8.2861917719739623E-52</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1.7821457394972583E-52</v>
       </c>
       <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>-51.081645019801137</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>-51.749056783311836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14">
         <v>-63.857596576213801</v>
       </c>
-      <c r="H13">
+      <c r="B14">
         <v>-64.379585206508594</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>342</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>343</v>
-      </c>
-      <c r="E14" t="s">
-        <v>344</v>
+      <c r="C14">
+        <v>-64.433873065903583</v>
+      </c>
+      <c r="D14">
+        <v>-64.379096332684099</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>9.7077688476170691E-65</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>-4.9501111378033037E-66</v>
       </c>
       <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>-64.012880573234156</v>
+      </c>
+      <c r="I14">
+        <f>D14 +LOG10((1- POWER(10,-(D14-C14))))</f>
+        <v>-65.305385050360798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>-79.0134574770927</v>
       </c>
-      <c r="H14">
+      <c r="B15">
         <v>-79.598059356212602</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>343</v>
-      </c>
-      <c r="E15" t="s">
-        <v>344</v>
+      <c r="C15">
+        <v>-79.589733966782489</v>
+      </c>
+      <c r="D15">
+        <v>-79.597570482388107</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>7.1717459927050876E-80</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>4.5993065697136984E-82</v>
       </c>
       <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>-79.144375100582238</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>-81.337307641285364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>-51.1959716677665</v>
       </c>
-      <c r="H15">
+      <c r="B16">
         <v>-52.390572216361697</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>342</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>343</v>
-      </c>
-      <c r="E16" t="s">
-        <v>344</v>
+      <c r="C16">
+        <v>-51.772248157456289</v>
+      </c>
+      <c r="D16">
+        <v>-52.390083342537196</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>5.9615267749067694E-52</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1.282173175730515E-52</v>
       </c>
       <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>-51.224642501165427</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>-51.892053313206517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>-48.845214068889597</v>
       </c>
-      <c r="H16">
+      <c r="B17">
         <v>-49.926314976066301</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>342</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>343</v>
-      </c>
-      <c r="E17" t="s">
-        <v>344</v>
+      <c r="C17">
+        <v>-49.421490558579386</v>
+      </c>
+      <c r="D17">
+        <v>-49.9258261022418</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.3096989062981365E-49</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>2.6026240632361956E-50</v>
       </c>
       <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>-48.882828535155717</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>-49.584588559148955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18">
         <v>-56.019786059856401</v>
       </c>
-      <c r="H17">
+      <c r="B18">
         <v>-57.214385654777203</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>342</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>343</v>
-      </c>
-      <c r="E18" t="s">
-        <v>344</v>
+      <c r="C18">
+        <v>-56.59606254954619</v>
+      </c>
+      <c r="D18">
+        <v>-57.213896780952709</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>8.9442317121547268E-57</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1.9236762880906635E-57</v>
       </c>
       <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>-56.048456958338832</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>-56.715868008246254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>-64.435050189495001</v>
       </c>
-      <c r="H18">
+      <c r="B19">
         <v>-65.629649784415903</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>342</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>343</v>
-      </c>
-      <c r="E19" t="s">
-        <v>344</v>
+      <c r="C19">
+        <v>-65.011326679184791</v>
+      </c>
+      <c r="D19">
+        <v>-65.629160910591409</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>3.4377865809118702E-65</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>7.3938027793151326E-66</v>
       </c>
       <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>-64.463721087977433</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>-65.131132137884819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>-103.578482806682</v>
       </c>
-      <c r="H19">
+      <c r="B20">
         <v>-104.7730862163</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>342</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>343</v>
-      </c>
-      <c r="E20" t="s">
-        <v>344</v>
+      <c r="C20">
+        <v>-104.15475929637179</v>
+      </c>
+      <c r="D20">
+        <v>-104.77259734247551</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.4708509902422502E-104</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>5.3141823999368716E-105</v>
       </c>
       <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>-103.60715344483137</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>-104.27456354327789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>-57.658972918987203</v>
       </c>
-      <c r="H20">
+      <c r="B21">
         <v>-58.853571560233803</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>342</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>343</v>
-      </c>
-      <c r="E21" t="s">
-        <v>344</v>
+      <c r="C21">
+        <v>-58.235249408676992</v>
+      </c>
+      <c r="D21">
+        <v>-58.853082686409309</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2.0528448025595993E-58</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>4.4151435629071E-59</v>
       </c>
       <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>-57.687643882553274</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>-58.355055170327702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>-55.781642138957899</v>
       </c>
-      <c r="H21">
+      <c r="B22">
         <v>-56.976240780204499</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>342</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>343</v>
-      </c>
-      <c r="E22" t="s">
-        <v>344</v>
+      <c r="C22">
+        <v>-56.357918628647688</v>
+      </c>
+      <c r="D22">
+        <v>-56.975751906379998</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.5477004094100538E-56</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3.3287073096783035E-57</v>
       </c>
       <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>-55.81031310252397</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>-56.477724390298405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23">
         <v>-55.469306170940399</v>
       </c>
-      <c r="H22">
+      <c r="B23">
         <v>-56.663905765861202</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>342</v>
-      </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>343</v>
-      </c>
-      <c r="E23" t="s">
-        <v>344</v>
+      <c r="C23">
+        <v>-56.045582660630188</v>
+      </c>
+      <c r="D23">
+        <v>-56.663416892036707</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>3.1770418127746561E-56</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>6.8330072366103138E-57</v>
       </c>
       <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>-55.497977069422831</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>-56.165388119330252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24">
         <v>-66.820014178752899</v>
       </c>
-      <c r="H23">
+      <c r="B24">
         <v>-67.114237487316103</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>342</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>343</v>
-      </c>
-      <c r="E24" t="s">
-        <v>344</v>
+      <c r="C24">
+        <v>-67.396290668442688</v>
+      </c>
+      <c r="D24">
+        <v>-67.113748613491609</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>7.4480186681398168E-68</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>-3.6805378500291911E-68</v>
       </c>
       <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>-67.127959243484824</v>
+      </c>
+      <c r="I24">
+        <f>D24 +LOG10((1- POWER(10,-(D24-C24))))</f>
+        <v>-67.434088711698323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25">
         <v>-57.291335284709902</v>
       </c>
-      <c r="H24">
+      <c r="B25">
         <v>-58.485940601676702</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>342</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>343</v>
-      </c>
-      <c r="E25" t="s">
-        <v>344</v>
+      <c r="C25">
+        <v>-57.867611774399691</v>
+      </c>
+      <c r="D25">
+        <v>-58.485451727852208</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>4.7862370831566045E-58</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1.0294009971109961E-58</v>
       </c>
       <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>-57.320005792693635</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>-57.987415415414006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26">
         <v>-59.073943316936401</v>
       </c>
-      <c r="H25">
+      <c r="B26">
         <v>-60.268544819205999</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>342</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>343</v>
-      </c>
-      <c r="E26" t="s">
-        <v>344</v>
+      <c r="C26">
+        <v>-59.65021980662619</v>
+      </c>
+      <c r="D26">
+        <v>-60.268055945381505</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>7.8956141147786126E-60</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1.6981472281943438E-60</v>
       </c>
       <c r="G26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>-59.102614085251979</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>-59.770024659427456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27">
         <v>-74.151114642620001</v>
       </c>
-      <c r="H26">
+      <c r="B27">
         <v>-75.061240375041905</v>
+      </c>
+      <c r="C27">
+        <v>-74.727391132309791</v>
+      </c>
+      <c r="D27">
+        <v>-75.06075150121741</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>6.1928316845792526E-75</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1.0038488375968329E-75</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>-74.208110723551187</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>-74.99833167956163</v>
       </c>
     </row>
   </sheetData>
